--- a/DocumentsWeek1/Feature backlog.xlsx
+++ b/DocumentsWeek1/Feature backlog.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natjo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdsanch8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="12934"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>User Story</t>
   </si>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,40 +301,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,22 +672,22 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.53515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3828125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.61328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4609375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -701,250 +710,193 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:12" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="16" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="18"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="16" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="51.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="16" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:12" ht="51.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="17"/>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="17"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -958,20 +910,18 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="1:12" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="2"/>
@@ -980,107 +930,98 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="17"/>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="18"/>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="16" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:12" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="18"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1094,7 +1035,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1108,21 +1049,21 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1136,203 +1077,214 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1346,105 +1298,114 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1458,7 +1419,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1472,7 +1433,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1486,7 +1447,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1500,7 +1461,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1514,7 +1475,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1528,7 +1489,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1542,7 +1503,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1556,7 +1517,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1570,7 +1531,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1584,7 +1545,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1598,7 +1559,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1612,7 +1573,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1626,7 +1587,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1641,25 +1602,43 @@
       <c r="L64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B18:B20"/>
+  <mergeCells count="36">
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DocumentsWeek1/Feature backlog.xlsx
+++ b/DocumentsWeek1/Feature backlog.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdsanch8\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,21 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>User Story</t>
   </si>
   <si>
     <t>Feature</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Date Started</t>
-  </si>
-  <si>
-    <t>Implemented</t>
   </si>
   <si>
     <t>As a player, I want to enter my name so that my
@@ -54,9 +46,6 @@
     <t>File Write</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>As a player, I want to roll dice so that I can play 
 the game and generate results.</t>
   </si>
@@ -65,9 +54,6 @@
   </si>
   <si>
     <t>Number Generator</t>
-  </si>
-  <si>
-    <t>Team Members</t>
   </si>
   <si>
     <t>As a player, I want to view stats so that I can 
@@ -120,13 +106,49 @@
     <t>View stats</t>
   </si>
   <si>
-    <t>Expected Complete</t>
+    <t>Choose Start</t>
+  </si>
+  <si>
+    <t>As a player, I want to pick my environment to choose which resources I start with.
+the game and generate results.</t>
+  </si>
+  <si>
+    <t>As a player, I want to view the help menu for instructions on how to play the game.
+the game and generate results.</t>
+  </si>
+  <si>
+    <t>View Info</t>
+  </si>
+  <si>
+    <t>Name Received</t>
+  </si>
+  <si>
+    <t>Game Started</t>
+  </si>
+  <si>
+    <t>As a player, I want to mouse over a structure to display building options giving me what resources are required to build it.
+the game and generate results.</t>
+  </si>
+  <si>
+    <t>Enviroment Chosen</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Reqs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -268,11 +290,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,43 +453,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -331,28 +501,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,25 +920,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,63 +946,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
     <row r="3" spans="1:12" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="5"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="7"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="6"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="23"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -760,77 +1016,74 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="7"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="6"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="23"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="15" t="s">
+      <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="7"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -838,15 +1091,14 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="51.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -854,6 +1106,12 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="23"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -861,19 +1119,16 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="5"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -881,15 +1136,14 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="6"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -897,13 +1151,12 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -912,18 +1165,15 @@
     </row>
     <row r="18" spans="1:12" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="15" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="5"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -932,14 +1182,13 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="6"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -947,6 +1196,12 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -954,19 +1209,16 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="5"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -974,15 +1226,14 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -990,15 +1241,14 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="7"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1006,15 +1256,14 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="6"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1022,27 +1271,25 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1050,77 +1297,74 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="15" t="s">
-        <v>9</v>
-      </c>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="6"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="20"/>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="7"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="16"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="5"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1128,28 +1372,27 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="6"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="15" t="s">
-        <v>9</v>
-      </c>
+    <row r="33" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="23"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1157,13 +1400,16 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="20"/>
+      <c r="A34" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="5"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1171,13 +1417,14 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="16"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="6"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1185,6 +1432,12 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="23"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1192,21 +1445,18 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="A37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="5"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1214,13 +1464,12 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="7"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1228,13 +1477,12 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="16"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="6"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1242,6 +1490,12 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="23"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1249,35 +1503,31 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="A41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="5"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="16"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="7"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1285,362 +1535,621 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="6"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="15" t="s">
-        <v>9</v>
-      </c>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="23"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="16"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="5"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="7"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="15" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="6"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="20"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="23"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="20"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="5"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="16"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="6"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="7"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="5"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="6"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="23"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="23"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="23"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="23"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="23"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="5"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="7"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="7"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="6"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="23"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="5"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="G29:G31"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G7:G9"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="G21:G24"/>
     <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A50:A51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>